--- a/SchedulingData/static7/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_11.xlsx
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.06</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.58</v>
+        <v>43.3</v>
       </c>
       <c r="E3" t="n">
-        <v>25.632</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>114.1</v>
+        <v>125.84</v>
       </c>
       <c r="E4" t="n">
-        <v>22.42</v>
+        <v>23.196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>114.1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>162.58</v>
+        <v>52.56</v>
       </c>
       <c r="E5" t="n">
-        <v>19.692</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>162.58</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>209.84</v>
+        <v>78.42</v>
       </c>
       <c r="E6" t="n">
-        <v>17.096</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.58</v>
+        <v>43.3</v>
       </c>
       <c r="D7" t="n">
-        <v>135.04</v>
+        <v>113.56</v>
       </c>
       <c r="E7" t="n">
-        <v>22.776</v>
+        <v>22.944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.40000000000001</v>
+        <v>38.24</v>
       </c>
       <c r="E8" t="n">
-        <v>24.06</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.24</v>
       </c>
       <c r="D9" t="n">
-        <v>65.16</v>
+        <v>135.56</v>
       </c>
       <c r="E9" t="n">
-        <v>27.624</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.40000000000001</v>
+        <v>52.56</v>
       </c>
       <c r="D10" t="n">
-        <v>147.9</v>
+        <v>124.02</v>
       </c>
       <c r="E10" t="n">
-        <v>20.98</v>
+        <v>23.868</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65.16</v>
+        <v>125.84</v>
       </c>
       <c r="D11" t="n">
-        <v>145.66</v>
+        <v>189.24</v>
       </c>
       <c r="E11" t="n">
-        <v>23.704</v>
+        <v>19.476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>135.04</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>207.08</v>
+        <v>63.1</v>
       </c>
       <c r="E12" t="n">
-        <v>19.652</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147.9</v>
+        <v>124.02</v>
       </c>
       <c r="D13" t="n">
-        <v>209.44</v>
+        <v>214.12</v>
       </c>
       <c r="E13" t="n">
-        <v>17.956</v>
+        <v>18.928</v>
       </c>
     </row>
     <row r="14">
@@ -694,264 +694,264 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>113.56</v>
       </c>
       <c r="D14" t="n">
-        <v>60.7</v>
+        <v>174.26</v>
       </c>
       <c r="E14" t="n">
-        <v>26.1</v>
+        <v>18.004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>214.12</v>
       </c>
       <c r="D15" t="n">
-        <v>55.3</v>
+        <v>260.62</v>
       </c>
       <c r="E15" t="n">
-        <v>26.64</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>209.84</v>
+        <v>174.26</v>
       </c>
       <c r="D16" t="n">
-        <v>273.64</v>
+        <v>254.76</v>
       </c>
       <c r="E16" t="n">
-        <v>13.316</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>145.66</v>
+        <v>254.76</v>
       </c>
       <c r="D17" t="n">
-        <v>212.1</v>
+        <v>314.86</v>
       </c>
       <c r="E17" t="n">
-        <v>19.18</v>
+        <v>8.164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>60.7</v>
+        <v>63.1</v>
       </c>
       <c r="D18" t="n">
-        <v>125.26</v>
+        <v>130.88</v>
       </c>
       <c r="E18" t="n">
-        <v>21.784</v>
+        <v>20.712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>55.3</v>
+        <v>78.42</v>
       </c>
       <c r="D19" t="n">
-        <v>124.9</v>
+        <v>125.42</v>
       </c>
       <c r="E19" t="n">
-        <v>21.32</v>
+        <v>23.228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>207.08</v>
+        <v>130.88</v>
       </c>
       <c r="D20" t="n">
-        <v>277.58</v>
+        <v>182.8</v>
       </c>
       <c r="E20" t="n">
-        <v>14.712</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>125.26</v>
+        <v>125.42</v>
       </c>
       <c r="D21" t="n">
-        <v>189.2</v>
+        <v>170.1</v>
       </c>
       <c r="E21" t="n">
-        <v>18.52</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>212.1</v>
+        <v>135.56</v>
       </c>
       <c r="D22" t="n">
-        <v>287.12</v>
+        <v>170.46</v>
       </c>
       <c r="E22" t="n">
-        <v>16.268</v>
+        <v>20.864</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287.12</v>
+        <v>260.62</v>
       </c>
       <c r="D23" t="n">
-        <v>348.36</v>
+        <v>327.28</v>
       </c>
       <c r="E23" t="n">
-        <v>13.244</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>209.44</v>
+        <v>327.28</v>
       </c>
       <c r="D24" t="n">
-        <v>269.8</v>
+        <v>382.26</v>
       </c>
       <c r="E24" t="n">
-        <v>13.54</v>
+        <v>7.504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>273.64</v>
+        <v>170.1</v>
       </c>
       <c r="D25" t="n">
-        <v>362.62</v>
+        <v>220.7</v>
       </c>
       <c r="E25" t="n">
-        <v>9.488</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>269.8</v>
+        <v>189.24</v>
       </c>
       <c r="D26" t="n">
-        <v>326.1</v>
+        <v>240.84</v>
       </c>
       <c r="E26" t="n">
-        <v>10.02</v>
+        <v>15.956</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>189.2</v>
+        <v>382.26</v>
       </c>
       <c r="D27" t="n">
-        <v>239.72</v>
+        <v>431.36</v>
       </c>
       <c r="E27" t="n">
-        <v>15.608</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="28">
@@ -960,226 +960,226 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>124.9</v>
+        <v>170.46</v>
       </c>
       <c r="D28" t="n">
-        <v>190.92</v>
+        <v>230.2</v>
       </c>
       <c r="E28" t="n">
-        <v>16.848</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>348.36</v>
+        <v>230.2</v>
       </c>
       <c r="D29" t="n">
-        <v>411.26</v>
+        <v>293.9</v>
       </c>
       <c r="E29" t="n">
-        <v>9.084</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>411.26</v>
+        <v>431.36</v>
       </c>
       <c r="D30" t="n">
-        <v>451.06</v>
+        <v>491.88</v>
       </c>
       <c r="E30" t="n">
-        <v>6.724</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>239.72</v>
+        <v>491.88</v>
       </c>
       <c r="D31" t="n">
-        <v>297.74</v>
+        <v>568.1</v>
       </c>
       <c r="E31" t="n">
-        <v>11.916</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>190.92</v>
+        <v>182.8</v>
       </c>
       <c r="D32" t="n">
-        <v>242.48</v>
+        <v>233.92</v>
       </c>
       <c r="E32" t="n">
-        <v>13.312</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>326.1</v>
+        <v>233.92</v>
       </c>
       <c r="D33" t="n">
-        <v>388.88</v>
+        <v>298.82</v>
       </c>
       <c r="E33" t="n">
-        <v>4.872</v>
+        <v>9.808</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>362.62</v>
+        <v>568.1</v>
       </c>
       <c r="D34" t="n">
-        <v>422.42</v>
+        <v>614.02</v>
       </c>
       <c r="E34" t="n">
-        <v>6.128</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>388.88</v>
+        <v>314.86</v>
       </c>
       <c r="D35" t="n">
-        <v>444.98</v>
+        <v>376.06</v>
       </c>
       <c r="E35" t="n">
-        <v>1.392</v>
+        <v>4.164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>444.98</v>
+        <v>298.82</v>
       </c>
       <c r="D36" t="n">
-        <v>524.1</v>
+        <v>358.88</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>7.432</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>422.42</v>
+        <v>240.84</v>
       </c>
       <c r="D37" t="n">
-        <v>495.96</v>
+        <v>289.68</v>
       </c>
       <c r="E37" t="n">
-        <v>1.864</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>495.96</v>
+        <v>220.7</v>
       </c>
       <c r="D38" t="n">
-        <v>564.23</v>
+        <v>277.34</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>11.956</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>451.06</v>
+        <v>376.06</v>
       </c>
       <c r="D39" t="n">
-        <v>507.88</v>
+        <v>439.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3.652</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>297.74</v>
+        <v>439.5</v>
       </c>
       <c r="D40" t="n">
-        <v>347.48</v>
+        <v>510.56</v>
       </c>
       <c r="E40" t="n">
-        <v>8.571999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>242.48</v>
+        <v>293.9</v>
       </c>
       <c r="D41" t="n">
-        <v>300.18</v>
+        <v>363.3</v>
       </c>
       <c r="E41" t="n">
-        <v>9.172000000000001</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>277.58</v>
+        <v>510.56</v>
       </c>
       <c r="D42" t="n">
-        <v>331.08</v>
+        <v>597.76</v>
       </c>
       <c r="E42" t="n">
-        <v>10.992</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>347.48</v>
+        <v>363.3</v>
       </c>
       <c r="D43" t="n">
-        <v>403.44</v>
+        <v>396.98</v>
       </c>
       <c r="E43" t="n">
-        <v>4.596</v>
+        <v>6.192</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>507.88</v>
+        <v>289.68</v>
       </c>
       <c r="D44" t="n">
-        <v>558.4</v>
+        <v>336.6</v>
       </c>
       <c r="E44" t="n">
-        <v>0.22</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1283,93 +1283,93 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>558.4</v>
+        <v>336.6</v>
       </c>
       <c r="D45" t="n">
-        <v>634.76</v>
+        <v>396.92</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>6.708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>403.44</v>
+        <v>358.88</v>
       </c>
       <c r="D46" t="n">
-        <v>457.34</v>
+        <v>443.58</v>
       </c>
       <c r="E46" t="n">
-        <v>1.316</v>
+        <v>4.072</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>457.34</v>
+        <v>396.92</v>
       </c>
       <c r="D47" t="n">
-        <v>526.61</v>
+        <v>466.72</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>1.848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>524.1</v>
+        <v>466.72</v>
       </c>
       <c r="D48" t="n">
-        <v>578.4400000000001</v>
+        <v>530.02</v>
       </c>
       <c r="E48" t="n">
-        <v>26.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>526.61</v>
+        <v>530.02</v>
       </c>
       <c r="D49" t="n">
-        <v>613.8099999999999</v>
+        <v>573.3200000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>25.92</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="50">
@@ -1378,112 +1378,112 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>300.18</v>
+        <v>396.98</v>
       </c>
       <c r="D50" t="n">
-        <v>356.38</v>
+        <v>455.2</v>
       </c>
       <c r="E50" t="n">
-        <v>5.172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>613.8099999999999</v>
+        <v>573.3200000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>665.47</v>
+        <v>639.46</v>
       </c>
       <c r="E51" t="n">
-        <v>22.384</v>
+        <v>24.336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>331.08</v>
+        <v>597.76</v>
       </c>
       <c r="D52" t="n">
-        <v>385.08</v>
+        <v>666.02</v>
       </c>
       <c r="E52" t="n">
-        <v>7.212</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>356.38</v>
+        <v>277.34</v>
       </c>
       <c r="D53" t="n">
-        <v>409.2</v>
+        <v>355.14</v>
       </c>
       <c r="E53" t="n">
-        <v>1.52</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>409.2</v>
+        <v>355.14</v>
       </c>
       <c r="D54" t="n">
-        <v>507.56</v>
+        <v>453.68</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>3.532</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>385.08</v>
+        <v>639.46</v>
       </c>
       <c r="D55" t="n">
-        <v>454.88</v>
+        <v>704.96</v>
       </c>
       <c r="E55" t="n">
-        <v>2.352</v>
+        <v>20.416</v>
       </c>
     </row>
     <row r="56">
@@ -1492,36 +1492,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>507.56</v>
+        <v>455.2</v>
       </c>
       <c r="D56" t="n">
-        <v>571.28</v>
+        <v>536</v>
       </c>
       <c r="E56" t="n">
-        <v>26.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>454.88</v>
+        <v>536</v>
       </c>
       <c r="D57" t="n">
-        <v>517.1799999999999</v>
+        <v>610.86</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>25.684</v>
       </c>
     </row>
     <row r="58">
@@ -1530,22 +1530,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>517.1799999999999</v>
+        <v>614.02</v>
       </c>
       <c r="D58" t="n">
-        <v>597.6799999999999</v>
+        <v>678.58</v>
       </c>
       <c r="E58" t="n">
-        <v>27.08</v>
+        <v>24.232</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>578.4400000000001</v>
+        <v>443.58</v>
       </c>
       <c r="D59" t="n">
-        <v>638.98</v>
+        <v>514.3200000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>23.292</v>
+        <v>1.108</v>
       </c>
     </row>
     <row r="60">
@@ -1568,36 +1568,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>564.23</v>
+        <v>514.3200000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>621.55</v>
+        <v>608.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>621.55</v>
+        <v>453.68</v>
       </c>
       <c r="D61" t="n">
-        <v>684.8099999999999</v>
+        <v>499.78</v>
       </c>
       <c r="E61" t="n">
-        <v>23.232</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="62">
@@ -1606,36 +1606,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>638.98</v>
+        <v>499.78</v>
       </c>
       <c r="D62" t="n">
-        <v>701.28</v>
+        <v>581.58</v>
       </c>
       <c r="E62" t="n">
-        <v>20.652</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>597.6799999999999</v>
+        <v>608.5</v>
       </c>
       <c r="D63" t="n">
-        <v>653.98</v>
+        <v>674.86</v>
       </c>
       <c r="E63" t="n">
-        <v>23.56</v>
+        <v>26.024</v>
       </c>
     </row>
   </sheetData>
